--- a/Lab3/final_scheme.xlsx
+++ b/Lab3/final_scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d98b1da7e90db015/Documents/BTH - Kurser/DV2626 - Maskininlärning/machinelearning/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_33FD93B6D3105D1ED7D83011595ED87656CD2F37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44C1853-47E1-4E10-AB34-F54572679AE7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1B75F2B3D320D241E3992B11595ED87656CD08BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A87BE40-F432-4B2B-9EB5-DAB8FFA7E498}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
   <si>
     <t>Day</t>
   </si>
@@ -43,435 +43,534 @@
     <t>MONDAY</t>
   </si>
   <si>
-    <t>Bench Dip</t>
-  </si>
-  <si>
-    <t>Weighted</t>
-  </si>
-  <si>
-    <t>Sit on inside of one of two benches placed parallel, slightly less than leg's length away. Place hands on edge of bench. Straighten arms, slide rear end off of edge of bench and position heels on adjacent bench with legs straight. Have assistant place weight on lap near hips.</t>
-  </si>
-  <si>
-    <t>Lower body by bending arms until slight stretch is felt in chest or shoulder, or rear end touches floor. Raise body and repeat.</t>
+    <t>Rear Delt Row</t>
+  </si>
+  <si>
+    <t>Barbell</t>
+  </si>
+  <si>
+    <t>Bend knees slightly and bend over bar with back straight, approximately horizontal. Grasp bar with wide overhand grip.</t>
+  </si>
+  <si>
+    <t>Keeping upper arm perpendicular to torso, pull barbell up toward upper chest until upper arms are just beyond horizontal. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Presses</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Lie on bench and grasp stirrups attached to low cable pulley on each side. Position stirrups out to each side of chest with bent arm under each wrist.</t>
+  </si>
+  <si>
+    <t>Push stirrups up over each shoulder until arms are straight and parallel to one another. Return stirrups to original position, until slight stretch is felt in shoulders or chest. Repeat.</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Seated Reverse Fly:  pronated grip</t>
+  </si>
+  <si>
+    <t>Lever (selectorized)</t>
+  </si>
+  <si>
+    <t>Sit in machine with chest against pad. Grasp parallel handles from inside with thumbs down at shoulder height.</t>
+  </si>
+  <si>
+    <t>Keeping elbows pointed high, pull handles apart and to rear until elbows are just behind back. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Shoulder External Rotation</t>
+  </si>
+  <si>
+    <t>Lever (plate loaded)</t>
+  </si>
+  <si>
+    <t>Stand or sit with side against chest height platform. With dumbbell in hand, position upper arm horizontally on platform, elbow bent so forearm is upright.</t>
+  </si>
+  <si>
+    <t>Lower dumbbell forward by rotating shoulder. Return and repeat. Continue with opposite arm.</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Incline Lateral Raise</t>
+  </si>
+  <si>
+    <t>Dumbbell</t>
+  </si>
+  <si>
+    <t>Grasp dumbbell in one hand. Lie on 30° to 45° incline bench with opposite side of body on incline, arm over top of bench, lower leg positioned on front side of seat, and upper leg on back side of seat. Position dumbbell inside of lower leg, just in front of upper leg.</t>
+  </si>
+  <si>
+    <t>With elbows slightly bent, raise arms upward and outward to sides in Y configuration until elbows are approximately lateral to each ear. Lower stirrups forward and downward in reverse pattern. Repeat.</t>
+  </si>
+  <si>
+    <t>Lying Triceps Extension:  Skull Crusher</t>
+  </si>
+  <si>
+    <t>Lie on bench with narrow overhand grip on barbell. Position barbell over shoulders with arms extended.</t>
+  </si>
+  <si>
+    <t>Lower bar to forehead by bending elbows. Extend arms and repeat.</t>
   </si>
   <si>
     <t>Triceps</t>
   </si>
   <si>
-    <t xml:space="preserve">Chest Dip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assisted  Chest Dip  </t>
-  </si>
-  <si>
-    <t>Mountwide dip barwith oblique grip (bar diagonal under palm), arms straight with shoulders above hands. Step down onto assistance lever with hips and knees bent.</t>
-  </si>
-  <si>
-    <t>Lower body by bending arms, allowing elbows to flare out to sides. When slight stretch is felt in chest or shoulders, push body up until arms are straight. Repeat.</t>
-  </si>
-  <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>Inverted Shrug</t>
+    <t>Push-up:  on knees</t>
   </si>
   <si>
     <t>Body Weight</t>
   </si>
   <si>
-    <t>Stand between parallel bars. Squat down and grasp parallel bars from above. Kick legs up inverting and balancing body upside down. Legs can be kept bent or straight, positioned vertically.</t>
-  </si>
-  <si>
-    <t>Raise body up a high as possible by pulling shoulders toward ears. Lower body to original position and repeat.</t>
-  </si>
-  <si>
-    <t>Back</t>
+    <t>Lie prone on floor with hands slightly wider than shoulder width. Bend knees and raise body up off floor by extending arms with body straight.</t>
+  </si>
+  <si>
+    <t>Keeping body straight and knees bent, lower body to floor by bending arms. Push body up until arms are extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Full Can Lateral Raise</t>
+  </si>
+  <si>
+    <t>Grasp dumbbells with each hand with palms facing forward.</t>
+  </si>
+  <si>
+    <t>Raise arms to side with thumb side up. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
+  </si>
+  <si>
+    <t>Lateral Raise:  other machine</t>
+  </si>
+  <si>
+    <t>Sit in machine. Situate bent arms between padded lever and sides of body. Grasp handles if available.</t>
+  </si>
+  <si>
+    <t>Raise arms to sides until upper arms are horizontal. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Grasp two dumbbells. Lie supine on bench. Support dumbbells above chest with arms fixed in slightly bent position. Internally rotate shoulders so elbows point out to sides.</t>
+  </si>
+  <si>
+    <t>Lower dumbbells to sides until chest muscles are stretched with elbows fixed in slightly bent position. Bring dumbbells together in wide hugging motion until dumbbells are nearly together. Repeat.</t>
+  </si>
+  <si>
+    <t>Front Raise:  Alternating</t>
+  </si>
+  <si>
+    <t>Stand with low double pulleys behind. Grasp stirrup attachments, one in each hand. Stand away from pulley slightly with arms back somewhat at side and elbows straight or slightly bent.</t>
+  </si>
+  <si>
+    <t>Raise one stirrup forward and upward until upper arm is well above horizontal. Lower and repeat with opposite arm, alternating between arms.</t>
+  </si>
+  <si>
+    <t>Seated Row (no chest pad):  Straight Back</t>
+  </si>
+  <si>
+    <t>Sit on seat and grasp handles with each hand. Place feet on vertically angled platform. Slide hips back with knees slightly bent.</t>
+  </si>
+  <si>
+    <t>Pull handles to waist while straightening torso upright. Pull shoulders back and push chest forward while arching back. Return until arms are extended, shoulders are stretched forward, and lower back is flexed forward. Repeat.</t>
+  </si>
+  <si>
+    <t>Rear Lateral Raise</t>
+  </si>
+  <si>
+    <t>Stand with cable columns to each side. Grasp left stirrup with right hand and right stirrup with left hand. Bend knees and bend over at hips, so torso is approximately horizontal with back straight. Point elbows outward with arms slightly bent.</t>
+  </si>
+  <si>
+    <t>Raise upper arms to sides until elbows are shoulder height. Maintain upper arms perpendicular to torso and slight bend in elbows as arms are raised to sides. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Close Grip Push-up:  on knees</t>
+  </si>
+  <si>
+    <t>Lie prone on floor with hands under shoulders or slightly narrower. Position body up off floor with extended arms and body straight.</t>
+  </si>
+  <si>
+    <t>Keeping body straight, lower body to floor by bending arms. Push body up until arms are extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Chest Press</t>
+  </si>
+  <si>
+    <t>Sit on seat with chest approximately height of handles. Grasp handles with wide overhand grip; elbows out to sides just below shoulders.</t>
+  </si>
+  <si>
+    <t>Press levers until arms are extended. Return weight until chest muscles are slightly stretched. Repeat.</t>
+  </si>
+  <si>
+    <t>Lateral Raise</t>
+  </si>
+  <si>
+    <t>With low pulleys to each side, grasp left stirrup with right hand and right stirrup with left hand. Stand upright.</t>
+  </si>
+  <si>
+    <t>With elbows slightly bent, raise arms to sides   until elbows are shoulder height. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>Front Raise:  One Arm</t>
+  </si>
+  <si>
+    <t>Grasp stirrup attachment. Stand away from pulley slightly with arm back somewhat at side and elbow straight or slightly bent.</t>
+  </si>
+  <si>
+    <t>Raise stirrup forward and upward until upper arm is well above horizontal. Lower and repeat. Repeat with opposite arm.</t>
+  </si>
+  <si>
+    <t>Decline Push-up</t>
+  </si>
+  <si>
+    <t>Kneel on floor with bench or elevation behind body. Position hands on floor slightly wider than shoulder width. Place feet on bench or elevation. Raise body in plank position with body straight and arms extended.</t>
+  </si>
+  <si>
+    <t>Keeping body straight, lower upper body to floor by bending arms. To allow for full descent, pull head back slightly without arching back. Push body up until arms are extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Seated Rear Delt Row</t>
+  </si>
+  <si>
+    <t>Place seat at low position. Sit on seat with chest against pad and grasp upper handles.</t>
+  </si>
+  <si>
+    <t>Pull lever with elbows up out to sides until upper arms are just beyond parallel, keeping upper arm horizontal, perpendicular to torso. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Inverted Row:  On Hips</t>
+  </si>
+  <si>
+    <t>Lay on back with belly under fixed horizontal bar. Bend knees and position feet on floor. Grasp bar with wide overhand grip.</t>
+  </si>
+  <si>
+    <t>Keeping hips on floor and low back straight, pull torso up to bar. Pull shoulders back at top of movement with chest high. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+  </si>
+  <si>
+    <t>Front Raise</t>
+  </si>
+  <si>
+    <t>Grasp barbell with overhand grip with elbows straight or slightly bent.</t>
+  </si>
+  <si>
+    <t>Raise barbell forward and upward until upper arms are above horizontal. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Triceps Dip</t>
+  </si>
+  <si>
+    <t>Assisted</t>
+  </si>
+  <si>
+    <t>Mountshoulder width dip bar, arms straight with shoulders above hands. Step down onto assistance lever. Keep hips and knees straight.</t>
+  </si>
+  <si>
+    <t>Lower body until slight stretch is felt in shoulders. Push body up until arms are straight. Repeat.</t>
+  </si>
+  <si>
+    <t>Bench Press</t>
+  </si>
+  <si>
+    <t>Lie supine on bench. Dismount barbell from rack over upper chest using wide oblique overhand grip.</t>
+  </si>
+  <si>
+    <t>Lower weight to chest. Press bar upward until arms are extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Shoulder Press</t>
+  </si>
+  <si>
+    <t>Stand between two low to medium height pulleys. Grasp cable stirrups from each side. Position stirrups to each side of shoulders with elbows down to sides and stirrups above or slightly narrower than elbows.</t>
+  </si>
+  <si>
+    <t>Push stirrups upward until arms are extended overhead. Return stirrups to sides of shoulders and repeat.</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>Lateral Raise:  One Arm</t>
+  </si>
+  <si>
+    <t>Grasp stirrup cable attachment. Stand facing with side of resting arm toward low pulley. Grasp ballet bar if available.</t>
+  </si>
+  <si>
+    <t>With elbow slightly bent, raise arm to side away from low pulley until elbow is shoulder height. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Incline Bench Press</t>
+  </si>
+  <si>
+    <t>Lie supine on incline bench. Dismount barbell from rack over upper chest using wide oblique overhand grip.</t>
+  </si>
+  <si>
+    <t>Lower weight to upper chest. Press bar until arms are extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Reverse Fly</t>
+  </si>
+  <si>
+    <t>Stand facing twin pulley cables positioned close together and approximately shoulder height. Grasp stirrup cable attachment in each hand. Step back away from machine so cable is taut. Stand with feet staggered. Point elbows outward with arms straight or slightly bent.</t>
+  </si>
+  <si>
+    <t>Pull stirrups out to sides, maintaining stiff elbow position throughout exercise. Return to original position and repeat.</t>
+  </si>
+  <si>
+    <t>One Arm Pull-up New!</t>
+  </si>
+  <si>
+    <t>Step up and grasp bar with underhand shoulder width grip.</t>
+  </si>
+  <si>
+    <t>Pull body up until elbows are to sides. Lower body until arms and shoulders are fully extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Military Press</t>
+  </si>
+  <si>
+    <t>Grasp barbell from rack orcleanbarbell from floor with overhand grip, slightly wider than shoulder width. Position bar in front of neck.</t>
+  </si>
+  <si>
+    <t>Press bar upward until arms are extended overhead. Lower to front of neck and repeat.</t>
+  </si>
+  <si>
+    <t>Bent-over Triceps Extension</t>
+  </si>
+  <si>
+    <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
+  </si>
+  <si>
+    <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Flies:  Standing Fly</t>
+  </si>
+  <si>
+    <t>Grasp two opposing high pulley dumbbell attachments. Stand with pulleys to each side. Bend over slightly by flexing hips and knees. Bend elbows slightly and internally rotate shoulders so elbows are back initially.</t>
+  </si>
+  <si>
+    <t>Bring cable attachments together in hugging motion with elbows in fixed position. Keep shoulders internally rotated so elbows are pointed upward at top and out to sides at bottom. Return to starting position until chest muscles are stretched. Repeat.</t>
+  </si>
+  <si>
+    <t>Reclined Shoulder Press</t>
+  </si>
+  <si>
+    <t>Lie on back pad facing up. Grasp lever handles on each side with overhand grip.</t>
+  </si>
+  <si>
+    <t>Press lever until arms are extended. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>Seated Rear Lateral Raise</t>
+  </si>
+  <si>
+    <t>Sit on edge of bench with feet placed beyond knees. Bend over and rest torso on thighs. Grasp dumbbells with each hand under legs. Position elbows with slight bend with palms facing together behind ankles (as shown) or just to sides of ankles.</t>
+  </si>
+  <si>
+    <t>Raise upper arms to sides until elbows are shoulder height. Maintain upper arms perpendicular to torso and fixed elbow position (10° to 30° angle) throughout exercise. Maintain elbows height above wrists by raising "pinkie finger" side up. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Presses:  Decline Chest Press</t>
+  </si>
+  <si>
+    <t>Sit on seat and grasp stirrups to each side. Position elbows out to sides, slightly lower than shoulder height. Position hands slightly narrower than elbow width in front of upper arms.</t>
+  </si>
+  <si>
+    <t>Push stirrups forward and slightly downward until arms are straight and parallel to one another. Return stirrups to original position, until slight stretch is felt in shoulders or chest. Repeat.</t>
+  </si>
+  <si>
+    <t>Rear Delt Inverted Row (on hips)</t>
+  </si>
+  <si>
+    <t>Lay on back with belly under fixed horizontal bar. Bend knees and position feet on floor. Grasp bar with wide overhand grip. Turn elbows outward to sides.</t>
+  </si>
+  <si>
+    <t>Keeping hips on floor, low back straight, and elbow pointed out to sides; pull torso up to bar. Return when upper arms are just beyond parallel to one another. Lower body downward until arms are extended straight. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Pull-up (open-centered bar)</t>
+  </si>
+  <si>
+    <t>Assisted (machine)</t>
+  </si>
+  <si>
+    <t>Step up and grasp bar with wide overhand grip. Kneel on padded platform and lower body down with arm extended.</t>
+  </si>
+  <si>
+    <t>Pull body up until neck reaches height of hands. Lower body until arms and shoulders are fully extended. Repeat.</t>
+  </si>
+  <si>
+    <t>Arnold Press</t>
+  </si>
+  <si>
+    <t>Stand with two dumbbells position in front of shoulders, palms facing body and elbows under wrists.</t>
+  </si>
+  <si>
+    <t>Initiate movement by bringing elbows out to sides. Continue to raise elbows outward while pressing dumbbells overhead until arms are straight. Lower to front of shoulders in opposite pattern and repeat.</t>
+  </si>
+  <si>
+    <t>Pushdown</t>
+  </si>
+  <si>
+    <t>Face high pulley and grasp cable attachment with narrow overhand grip. Position elbows to side.</t>
+  </si>
+  <si>
+    <t>Extend arms down. Return until forearm is close to upper arm. Repeat.</t>
+  </si>
+  <si>
+    <t>Push-up:  Archer</t>
+  </si>
+  <si>
+    <t>Lie prone with forefeet on floor and hands slightly wider than shoulder width. Raise body up off floor by extending arms with body straight.</t>
+  </si>
+  <si>
+    <t>Lying Lateral Raise</t>
+  </si>
+  <si>
+    <t>Lie on side with legs separated for support. Grasp dumbbell in front of thigh.</t>
+  </si>
+  <si>
+    <t>Raise dumbbell from floor until arm is vertical. Maintain fixed elbow position (10° to 30° angle) throughout exercise. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>Y Raise</t>
+  </si>
+  <si>
+    <t>Stand facing between low pulleys medium width apart, grasp left stirrup with right hand and right stirrup with left hand. Step back slightly away from pulleys and stand upright with cables crossed in front of hips.</t>
+  </si>
+  <si>
+    <t>Incline Chest Press</t>
+  </si>
+  <si>
+    <t>Sit on seat and grasp stirrups to each side (attached to medium height pulleys). Position elbows out to sides, slightly lower than shoulder height. Position hands back approximately shoulder height and elbow width.</t>
+  </si>
+  <si>
+    <t>Push stirrups away from body, slightly upward at 30º to 45º until arms are straight and parallel to one another. Return stirrups to original position until slight stretch is felt in chest or shoulders. Repeat.</t>
+  </si>
+  <si>
+    <t>Lying Rear Lateral Raise</t>
+  </si>
+  <si>
+    <t>Lie on machine with chest against padding. Position arms between padded lever arms with elbows below shoulders.</t>
+  </si>
+  <si>
+    <t>Pull arms up until elbows are beyond back. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Parallel Close Grip Pull-up</t>
+  </si>
+  <si>
+    <t>Step up and grasp parallel grips. Kneel on padded platform and lower body down with arm extended.</t>
+  </si>
+  <si>
+    <t>Rear Delt Inverted Row (high bar)</t>
+  </si>
+  <si>
+    <t>Stand facing horizontal bar positioned lower to upper chest height. Step toward bar so chest makes contact. Grasp bar with wide overhand grip. Raise elbows up to shoulder height. Place feet forward on floor so body is reclined back with legs, hips and spine straight.</t>
+  </si>
+  <si>
+    <t>Lower body while keeping body straight, elbows high, and upper arms perpendicular to torso, until arms are extended straight. Pull shoulders toward bar while keeping elbows up high until upper arms are parallel to one another, or just beyond. Repeat.</t>
+  </si>
+  <si>
+    <t>Pushdown:  One Arm</t>
+  </si>
+  <si>
+    <t>Grasp dumbbell cable attachment with underhand grip. Position elbow to side.</t>
+  </si>
+  <si>
+    <t>Extend arm down. Return until forearm is close to upper arm. Repeat. Continue with opposite arm.</t>
   </si>
   <si>
     <t>Flies</t>
   </si>
   <si>
-    <t>Cable</t>
-  </si>
-  <si>
     <t>Grasp two opposing low pulley stirrup attachments. Lie supine on bench, in middle and perpendicular to both pulleys. Slightly bend elbows and internally rotate shoulders so elbows are back.</t>
   </si>
   <si>
     <t>Bring cable attachments together in hugging motion with elbows in fixed position and shoulders internally rotated so elbows are to sides. Return to starting position until slight stretch. Repeat.</t>
   </si>
   <si>
-    <t>Military Press</t>
-  </si>
-  <si>
-    <t>Barbell</t>
-  </si>
-  <si>
-    <t>Grasp barbell from rack orcleanbarbell from floor with overhand grip, slightly wider than shoulder width. Position bar in front of neck.</t>
-  </si>
-  <si>
-    <t>Press bar upward until arms are extended overhead. Lower to front of neck and repeat.</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
-    <t>Incline Lateral Raise</t>
-  </si>
-  <si>
-    <t>Dumbbell</t>
-  </si>
-  <si>
-    <t>Grasp dumbbell in one hand. Lie on 30° to 45° incline bench with opposite side of body on incline, arm over top of bench, lower leg positioned on front side of seat, and upper leg on back side of seat. Position dumbbell inside of lower leg, just in front of upper leg.</t>
-  </si>
-  <si>
-    <t>With elbows slightly bent, raise arms upward and outward to sides in Y configuration until elbows are approximately lateral to each ear. Lower stirrups forward and downward in reverse pattern. Repeat.</t>
-  </si>
-  <si>
-    <t>Reverse Fly</t>
-  </si>
-  <si>
-    <t>Stand facing twin pulley cables positioned close together and approximately shoulder height. Grasp stirrup cable attachment in each hand. Step back away from machine so cable is taut. Stand with feet staggered. Point elbows outward with arms straight or slightly bent.</t>
-  </si>
-  <si>
-    <t>Pull stirrups out to sides, maintaining stiff elbow position throughout exercise. Return to original position and repeat.</t>
-  </si>
-  <si>
-    <t>Y Raise</t>
-  </si>
-  <si>
-    <t>Stand facing between low pulleys medium width apart, grasp left stirrup with right hand and right stirrup with left hand. Step back slightly away from pulleys and stand upright with cables crossed in front of hips.</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>Triceps Dip</t>
-  </si>
-  <si>
-    <t>Assisted</t>
-  </si>
-  <si>
-    <t>Mountshoulder width dip bar, arms straight with shoulders above hands. Step down onto assistance lever. Keep hips and knees straight.</t>
-  </si>
-  <si>
-    <t>Lower body until slight stretch is felt in shoulders. Push body up until arms are straight. Repeat.</t>
-  </si>
-  <si>
-    <t>Push-up Plus</t>
-  </si>
-  <si>
-    <t>Lie supine on incline bench with shoulders under bar. Grasp bar with shoulder width overhand grip. Extend elbows. Disengage bar by rotating bar back.</t>
+    <t>Seated Rear Delt Row:  alternative machine</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>Front Lateral Raise</t>
+  </si>
+  <si>
+    <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
+  </si>
+  <si>
+    <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
+  </si>
+  <si>
+    <t>Incline Fly</t>
+  </si>
+  <si>
+    <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
+  </si>
+  <si>
+    <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
+  </si>
+  <si>
+    <t>Upright Row</t>
+  </si>
+  <si>
+    <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
+  </si>
+  <si>
+    <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
+  </si>
+  <si>
+    <t>Pullover</t>
+  </si>
+  <si>
+    <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+  </si>
+  <si>
+    <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+  </si>
+  <si>
+    <t>Military Press:  Seated</t>
+  </si>
+  <si>
+    <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
+  </si>
+  <si>
+    <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
+  </si>
+  <si>
+    <t>Triceps Extension</t>
+  </si>
+  <si>
+    <t>Incline Shoulder Raise</t>
+  </si>
+  <si>
+    <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
   </si>
   <si>
     <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
   </si>
   <si>
-    <t>Seated Rows (Others)</t>
-  </si>
-  <si>
-    <t>Lever (plate loaded)</t>
-  </si>
-  <si>
-    <t>Sit on seat and position chest against pad. Grasp lever handles with overhand/neutral grip.</t>
-  </si>
-  <si>
-    <t>Pull levers back until elbows are behind back and shoulders are pulled back. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
-  </si>
-  <si>
-    <t>Presses:  Bench Press</t>
-  </si>
-  <si>
-    <t>Lie on bench and grasp stirrups attached to low cable pulley on each side. Position stirrups out to each side of chest with bent arm under each wrist.</t>
-  </si>
-  <si>
-    <t>Push stirrups up over each shoulder until arms are straight and parallel to one another. Return stirrups to original position, until slight stretch is felt in shoulders or chest. Repeat.</t>
-  </si>
-  <si>
-    <t>Shoulder Press:  Seated</t>
-  </si>
-  <si>
-    <t>Sit on seat and grasp stirrups from low to medium low position from each side. Position stirrups to each side of shoulders with elbows down to sides and stirrups above or slightly narrower than elbows.</t>
-  </si>
-  <si>
-    <t>Push stirrups upward until arms are extended overhead. Return stirrups to sides of shoulders and repeat.</t>
-  </si>
-  <si>
-    <t>Shoulder Press</t>
-  </si>
-  <si>
-    <t>Stand between two low to medium height pulleys. Grasp cable stirrups from each side. Position stirrups to each side of shoulders with elbows down to sides and stirrups above or slightly narrower than elbows.</t>
-  </si>
-  <si>
-    <t>Seated Reverse Fly</t>
-  </si>
-  <si>
-    <t>Lever (selectorized)</t>
-  </si>
-  <si>
-    <t>Sit on machine with chest against pad. Grasp parallel handles with thumbs up at shoulder height. Slightly bend elbows and internally rotate shoulders so elbows are also at height of shoulders.</t>
-  </si>
-  <si>
-    <t>Keeping elbows pointed high, pull handles apart and to rear until elbows are just behind back. Return and repeat.</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>Incline Bench Press</t>
-  </si>
-  <si>
-    <t>Lie supine on incline bench. Dismount barbell from rack over upper chest using wide oblique overhand grip.</t>
-  </si>
-  <si>
-    <t>Lower weight to upper chest. Press bar until arms are extended. Repeat.</t>
-  </si>
-  <si>
-    <t>Inverted Row</t>
-  </si>
-  <si>
-    <t>Sit on seat and position chest against pad. Grasp lever handles with underhand grip.</t>
-  </si>
-  <si>
-    <t>Incline Chest Press</t>
-  </si>
-  <si>
-    <t>Sit on seat and grasp stirrups to each side (attached to medium height pulleys). Position elbows out to sides, slightly lower than shoulder height. Position hands back approximately shoulder height and elbow width.</t>
-  </si>
-  <si>
-    <t>Push stirrups away from body, slightly upward at 30º to 45º until arms are straight and parallel to one another. Return stirrups to original position until slight stretch is felt in chest or shoulders. Repeat.</t>
-  </si>
-  <si>
-    <t>Upright Row​​​​​​​</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Stand behind bar mid-thigh height. Grasp bar with shoulder width or slightly narrower overhand grip. Disengage bar by rotating bar back and stand upright.</t>
-  </si>
-  <si>
-    <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Seated Rear Lateral Raise</t>
-  </si>
-  <si>
-    <t>Sit on edge of bench with feet placed beyond knees. Bend over and rest torso on thighs. Grasp dumbbells with each hand under legs. Position elbows with slight bend with palms facing together behind ankles (as shown) or just to sides of ankles.</t>
-  </si>
-  <si>
-    <t>Raise upper arms to sides until elbows are shoulder height. Maintain upper arms perpendicular to torso and fixed elbow position (10° to 30° angle) throughout exercise. Maintain elbows height above wrists by raising "pinkie finger" side up. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>Triceps Extension:  with preacher pad New!</t>
-  </si>
-  <si>
-    <t>Sit on seat. Grasp handles and place back of upper arms parallel on padding with elbows approximately in line with lever's fulcrum.</t>
-  </si>
-  <si>
-    <t>Push lever down until arms are fully extended. Return until forearms contact upper arms. Repeat.</t>
-  </si>
-  <si>
-    <t>Push-up</t>
-  </si>
-  <si>
-    <t>Lie prone on floor with hands slightly wider than shoulder width. Raise body up off floor by extending arms with body straight. Partner can place weight plate(s) on back if needed.</t>
-  </si>
-  <si>
-    <t>Keeping body straight, lower body to floor by bending arms. Push body up until arms are extended. Repeat.</t>
-  </si>
-  <si>
-    <t>Inverted Row:  High Bar</t>
-  </si>
-  <si>
-    <t>Stand facing arms length away from waist to head height horizontal bar. Grasp bar with wide overhand grip. Position body under bar with legs, hips and spine straight. Arms should be straight, approximately perpendicular to body. Heels should make contact with floor.</t>
-  </si>
-  <si>
-    <t>Keeping body straight, pull body up to bar. Pull shoulders back at top of movement with chest high. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
-  </si>
-  <si>
-    <t>Flies:  Seated Fly</t>
-  </si>
-  <si>
-    <t>Sit on seat and grasp stirrups to each side. Slightly bend elbows and internally rotate shoulders so elbows are back.</t>
-  </si>
-  <si>
-    <t>Keeping elbows pointed high, bring cable attachments together in hugging motion with elbows in fixed position. Return to starting position until slight stretch. Repeat.</t>
-  </si>
-  <si>
-    <t>Pike Press (between benches)</t>
-  </si>
-  <si>
-    <t>Kneel on two benches positioned side by side slightly apart at end nearest head. Place hands on ends of benches. With forefeet on opposite ends of bench, raise rear end high up with arms, back, and knees straight. Adjust feet so they are somewhat close to hands while keeping back and legs straight.</t>
-  </si>
-  <si>
-    <t>Lower head between ends of benches by bending arms. Push body back up to original position by extending arms. Repeat.</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>Chest Dip</t>
-  </si>
-  <si>
-    <t>Shrug with Stirrups</t>
-  </si>
-  <si>
-    <t>Stand between two low pulleys and grasp stirrups to each side. Stand upright with arms straight down to each side.</t>
-  </si>
-  <si>
-    <t>With arms straight, elevate shoulders as high as possible. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Decline Bench Press</t>
-  </si>
-  <si>
-    <t>Lie supine on decline bench with feet under leg brace. Dismount barbell from rack over chest using wide oblique overhand grip.</t>
-  </si>
-  <si>
-    <t>Lower weight to chest. Press bar until arms are extended. Repeat.</t>
-  </si>
-  <si>
-    <t>Lateral Raise:  other machine</t>
-  </si>
-  <si>
-    <t>Sit in machine. Situate bent arms between padded lever and sides of body. Grasp handles if available.</t>
-  </si>
-  <si>
-    <t>Raise arms to sides until upper arms are horizontal. Return and repeat.</t>
-  </si>
-  <si>
-    <t>Front Raise</t>
-  </si>
-  <si>
-    <t>Grasp barbell with overhand grip with elbows straight or slightly bent.</t>
-  </si>
-  <si>
-    <t>Raise barbell forward and upward until upper arms are above horizontal. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Front Raise:  One Arm</t>
-  </si>
-  <si>
-    <t>Grasp stirrup attachment. Stand away from pulley slightly with arm back somewhat at side and elbow straight or slightly bent.</t>
-  </si>
-  <si>
-    <t>Raise stirrup forward and upward until upper arm is well above horizontal. Lower and repeat. Repeat with opposite arm.</t>
-  </si>
-  <si>
-    <t>Shoulder Press:  One Arm</t>
-  </si>
-  <si>
-    <t>Stand with dumbbells positioned near shoulder with elbow below wrists.</t>
-  </si>
-  <si>
-    <t>Press dumbbell upward until arm is extended overhead. Lower to side of shoulder and repeat.</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>Pulldown</t>
-  </si>
-  <si>
-    <t>Grasp cable bar with wide grip. Sit with thighs under supports.</t>
-  </si>
-  <si>
-    <t>Pull down cable bar to upper chest. Return until arms and shoulders are fully extended. Repeat.</t>
-  </si>
-  <si>
-    <t>Flies:  Lying Fly</t>
-  </si>
-  <si>
-    <t>Lying Lateral Raise</t>
-  </si>
-  <si>
-    <t>Lie on side with legs separated for support. Grasp dumbbell in front of thigh.</t>
-  </si>
-  <si>
-    <t>Raise dumbbell from floor until arm is vertical. Maintain fixed elbow position (10° to 30° angle) throughout exercise. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Rear Delt Row</t>
-  </si>
-  <si>
-    <t>Bend knees slightly and bend over bar with back straight, approximately horizontal. Grasp bar with wide overhand grip.</t>
-  </si>
-  <si>
-    <t>Keeping upper arm perpendicular to torso, pull barbell up toward upper chest until upper arms are just beyond horizontal. Return and repeat.</t>
-  </si>
-  <si>
-    <t>Upright Row:  with rope</t>
-  </si>
-  <si>
-    <t>Grasp each side of rope with overhand grip, just under rope ends. Stand close to pulley.</t>
-  </si>
-  <si>
-    <t>Pull rope ends to front of shoulders with elbows leading. Allow wrists to flex as stirrups are lifted. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Front Raise:  Alternating</t>
-  </si>
-  <si>
-    <t>Stand with low double pulleys behind. Grasp stirrup attachments, one in each hand. Stand away from pulley slightly with arms back somewhat at side and elbows straight or slightly bent.</t>
-  </si>
-  <si>
-    <t>Raise one stirrup forward and upward until upper arm is well above horizontal. Lower and repeat with opposite arm, alternating between arms.</t>
-  </si>
-  <si>
-    <t>SUNDAY</t>
-  </si>
-  <si>
-    <t>Triceps Extension</t>
-  </si>
-  <si>
-    <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
-  </si>
-  <si>
-    <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
-  </si>
-  <si>
-    <t>Incline Shoulder Raise</t>
-  </si>
-  <si>
-    <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
-  </si>
-  <si>
-    <t>Pullover</t>
-  </si>
-  <si>
-    <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
-  </si>
-  <si>
-    <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
-  </si>
-  <si>
-    <t>Incline Fly</t>
-  </si>
-  <si>
-    <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
-  </si>
-  <si>
-    <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
-  </si>
-  <si>
-    <t>Military Press:  Seated</t>
-  </si>
-  <si>
-    <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
-  </si>
-  <si>
-    <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
-  </si>
-  <si>
-    <t>Upright Row</t>
-  </si>
-  <si>
-    <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
-  </si>
-  <si>
     <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
   </si>
   <si>
@@ -479,15 +578,6 @@
   </si>
   <si>
     <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
-  </si>
-  <si>
-    <t>Front Lateral Raise</t>
-  </si>
-  <si>
-    <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
-  </si>
-  <si>
-    <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
   </si>
 </sst>
 </file>
@@ -852,11 +942,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,24 +1023,24 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -966,32 +1057,32 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1000,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,29 +1099,29 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1047,7 +1138,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1064,120 +1155,120 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1185,16 +1276,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1202,123 +1293,123 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1326,16 +1417,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1343,123 +1434,123 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -1467,16 +1558,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -1484,123 +1575,123 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -1608,16 +1699,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -1625,123 +1716,123 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>25</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -1749,16 +1840,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -1766,104 +1857,104 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/final_scheme.xlsx
+++ b/Lab3/final_scheme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,22 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incline Shoulder Raise</t>
+          <t>Flies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
+          <t>Grasp two opposing low pulley stirrup attachments. Lie supine on bench, in middle and perpendicular to both pulleys. Slightly bend elbows and internally rotate shoulders so elbows are back.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
+          <t>Bring cable attachments together in hugging motion with elbows in fixed position and shoulders internally rotated so elbows are to sides. Return to starting position until slight stretch. Repeat.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -509,7 +509,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Military Press:  Seated</t>
+          <t>Front Raise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
+          <t>Grasp barbell with overhand grip with elbows straight or slightly bent.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
+          <t>Raise barbell forward and upward until upper arms are above horizontal. Lower and repeat.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -537,22 +537,22 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Triceps Extension</t>
+          <t>Triceps Dip</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Assisted</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
+          <t>Mountshoulder width dip bar, arms straight with shoulders above hands. Step down onto assistance lever. Keep hips and knees straight.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
+          <t>Lower body until slight stretch is felt in shoulders. Push body up until arms are straight. Repeat.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -565,22 +565,22 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Upright Row</t>
+          <t>Upright Row:  One Arm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
+          <t>Grasp stirrup on low pulley with overhand grip. Stand with side of arm with stirup away from pulley machine, arm against front of body. Place other hand on ballet bar or side of pulley column for support.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
+          <t>Pull stirup to front side of shoulder with elbow leading. Allow wrist to flex as stirrup is lifted. Lower and repeat.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -593,22 +593,22 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Incline Fly</t>
+          <t xml:space="preserve">Chest Dip </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t xml:space="preserve">Assisted  Chest Dip  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
+          <t>Mountwide dip barwith oblique grip (bar diagonal under palm), arms straight with shoulders above hands. Step down onto assistance lever with hips and knees bent.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
+          <t>Lower body by bending arms, allowing elbows to flare out to sides. When slight stretch is felt in chest or shoulders, push body up until arms are straight. Repeat.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -621,22 +621,22 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
+          <t>Shoulder Press:  One Arm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
+          <t>Stand with dumbbells positioned near shoulder with elbow below wrists.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+          <t>Press dumbbell upward until arm is extended overhead. Lower to side of shoulder and repeat.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -649,22 +649,22 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pull-up</t>
+          <t>Seated Rows:  Narrow Grip</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Weighted</t>
+          <t>Lever (plate loaded)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Step up and grasp bar with overhand wide grip.</t>
+          <t>Sit on seat and position chest against pad. Grasp lever handles with underhand grip.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pull body up until chin is above bar. Lower body until arms and shoulders are fully extended. Repeat.</t>
+          <t>Pull levers back until elbows are behind back and shoulders are pulled back. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -677,7 +677,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Front Lateral Raise</t>
+          <t>Reverse Fly</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -687,12 +687,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
+          <t>Stand facing twin pulley cables positioned close together and approximately shoulder height. Grasp stirrup cable attachment in each hand. Step back away from machine so cable is taut. Stand with feet staggered. Point elbows outward with arms straight or slightly bent.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
+          <t>Pull stirrups out to sides, maintaining stiff elbow position throughout exercise. Return to original position and repeat.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -725,7 +725,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reverse Curl</t>
+          <t>Incline Shoulder Raise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width overhand grip.</t>
+          <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Forearm</t>
+          <t>Chest</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reverse Wrist Curl</t>
+          <t>Military Press:  Seated</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
+          <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Forearm</t>
+          <t>Shoulder</t>
         </is>
       </c>
     </row>
@@ -781,27 +781,27 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Seated Supination</t>
+          <t>Triceps Extension</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dumbbell</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
+          <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
+          <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Forearm</t>
+          <t>Triceps</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation</t>
+          <t>Upright Row</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Shoulder</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wrist Curl</t>
+          <t>Incline Fly</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
+          <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
+          <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Forearm</t>
+          <t>Chest</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Concentration Curl</t>
+          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -875,17 +875,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Biceps</t>
+          <t>Shoulder</t>
         </is>
       </c>
     </row>
@@ -893,22 +893,22 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Seated Shoulder External Rotation:  Standing</t>
+          <t>Pullover</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
+          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
+          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -921,111 +921,75 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Curl</t>
+          <t>Front Lateral Raise</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width underhand grip.</t>
+          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
+          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Biceps</t>
+          <t>Shoulder</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seated Pronation </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Dumbbell</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Forearm</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Standing Shoulder Internal Rotation</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cable</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Grasp suspension handles and position bent elbows to each sides of waist.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Pull handles apart from each side, while keeping fixed elbow position and body and legs straight throughout movement. Raise forward so handles are to each side of body. Return back until handles come back together in front of body. Repeat.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Lying Reverse Calf Press</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Sled</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Position sled away from platform. Lie supine on sled with shoulders against pad and place feet very high on platform. Grasp handles to sides and straighten knees.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>Pull forefoot back toward body as far as possible while pushing platform with heels. Return feet down to platform and repeat.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Calves</t>
         </is>
       </c>
     </row>
@@ -1033,27 +997,27 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bent-over Pullover</t>
+          <t>Hip Extensions:  Lying</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Lever (selectorized)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Face high pulley and grasp revolving cable attachment with arm slightly bent. Place one foot slightly back and bend over at hip until shoulder is fully flexed (upper arms at sides of head).</t>
+          <t>With leg lever positioned in the lower position, lie supine on machine with legs over padded bar. Align hip joints with lever fulcrum. Strap hips down with belt if available. Release leg lever and adjust until leg lever is in upper position. Grasp handles to sides of head.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>With elbows fixed approximately 30°, pull cable attachment down until upper arms are to sides. Return attachment overhead. Repeat.</t>
+          <t>Push padded leg bar down until hips are extended. Return and repeat.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Glutes</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1025,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shrug</t>
+          <t>Hyperextension</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1071,17 +1035,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
+          <t>Position thighs prone on large pad and lower leg under padded brace. Place barbell on back of shoulders and grasp bar to sides.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>Raise upper body until hip and waist are fully extended. Lower body by bending hips and waist until fully flexed. Repeat.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Hamstring</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1053,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Seated Rows (Others):  Seated Low Row</t>
+          <t>Squat:  Barbell Machine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1099,17 +1063,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sit on seat and position chest against pad. Grasp lever handles with overhand/neutral grip.</t>
+          <t>With bar upper chest height, position bar on back of shoulders and grasp bar to sides. Place feet under bar. Disengage bar by rotating bar back.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pull levers back until elbows are behind back and shoulders are pulled back. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+          <t>Squat down by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Descend until thighs are just past parallel to floor. Extend knees and hips until legs are straight. Return and repeat.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Quads</t>
         </is>
       </c>
     </row>
@@ -1117,44 +1081,60 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shrug with Stirrups</t>
+          <t>Safety Barbell Seated Calf Raise</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stand between two low pulleys and grasp stirrups to each side. Stand upright with arms straight down to each side.</t>
+          <t>Place safety bar on rack approximately lower leg height with calf block slightly rear of safety bar. Sit on bench facing safety bar and place toes on lower portion of platform with heels extending off. Scoot forward to edge of bench and position lower thighs under safety bar. Grasp bar to sides and lift bar from rack by pushing heels up. Slide back to center of bench.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>With arms straight, elevate shoulders as high as possible. Lower and repeat.</t>
+          <t>Lower heels by bending ankles until calves are stretched. Raise heels by extending ankles as high as possible. Repeat.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Back</t>
+          <t>Calves</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Standing Calf Raise</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Barbell</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Set barbell on power rack upper chest height with calf block under barbell. Position back of shoulders under barbell with both hands to sides. Position toes and balls of feet on calf block with arches and heels extending off. Lean barbell against rack and raise from supports by extending knees and hips. Support barbell against verticals with both hands to sides.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Raise heels by extending ankles as high as possible. Lower heels by bending ankles until calves are stretched. Repeat.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Calves</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>WEDNESDAY</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1162,58 +1142,42 @@
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Lying Reverse Calf Press</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sled</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Position sled away from platform. Lie supine on sled with shoulders against pad and place feet very high on platform. Grasp handles to sides and straighten knees.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pull forefoot back toward body as far as possible while pushing platform with heels. Return feet down to platform and repeat.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Calves</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hip Extensions:  Lying</t>
+          <t>Reverse Curl</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lever (selectorized)</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>With leg lever positioned in the lower position, lie supine on machine with legs over padded bar. Align hip joints with lever fulcrum. Strap hips down with belt if available. Release leg lever and adjust until leg lever is in upper position. Grasp handles to sides of head.</t>
+          <t>Grasp bar with shoulder width overhand grip.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Push padded leg bar down until hips are extended. Return and repeat.</t>
+          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Glutes</t>
+          <t>Forearm</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1185,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hyperextension</t>
+          <t>Reverse Wrist Curl</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1231,17 +1195,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Position thighs prone on large pad and lower leg under padded brace. Place barbell on back of shoulders and grasp bar to sides.</t>
+          <t>Sit and grasp bar with narrow to shoulder width overhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Raise upper body until hip and waist are fully extended. Lower body by bending hips and waist until fully flexed. Repeat.</t>
+          <t>Raise barbell by pointing knuckles upward as high as possible. Return until knuckles are pointing downward as far as possible. Repeat.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hamstring</t>
+          <t>Forearm</t>
         </is>
       </c>
     </row>
@@ -1249,27 +1213,27 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Squat:  Barbell Machine</t>
+          <t>Seated Supination</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lever (plate loaded)</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>With bar upper chest height, position bar on back of shoulders and grasp bar to sides. Place feet under bar. Disengage bar by rotating bar back.</t>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of arm next to elevated surface, grasp unilaterally loaded dumbbell; thumb next to side with weight. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb downward (pronated).</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Squat down by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Descend until thighs are just past parallel to floor. Extend knees and hips until legs are straight. Return and repeat.</t>
+          <t>Rotate dumbbell so thumb turns upward (supination). Return and repeat.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Quads</t>
+          <t>Forearm</t>
         </is>
       </c>
     </row>
@@ -1277,27 +1241,27 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Safety Barbell Seated Calf Raise</t>
+          <t>Seated Shoulder External Rotation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Place safety bar on rack approximately lower leg height with calf block slightly rear of safety bar. Sit on bench facing safety bar and place toes on lower portion of platform with heels extending off. Scoot forward to edge of bench and position lower thighs under safety bar. Grasp bar to sides and lift bar from rack by pushing heels up. Slide back to center of bench.</t>
+          <t>Stand with side to elbow height cable pulley. Grasp stirrup attachment with far arm. Position elbow against side and forearm across belly.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lower heels by bending ankles until calves are stretched. Raise heels by extending ankles as high as possible. Repeat.</t>
+          <t>Pull cable attachment away from body as far as possible by externally rotating shoulder. Return and repeat. Turn around and continue with opposite arm.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Calves</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1269,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Standing Calf Raise</t>
+          <t>Wrist Curl</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1315,45 +1279,81 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Set barbell on power rack upper chest height with calf block under barbell. Position back of shoulders under barbell with both hands to sides. Position toes and balls of feet on calf block with arches and heels extending off. Lean barbell against rack and raise from supports by extending knees and hips. Support barbell against verticals with both hands to sides.</t>
+          <t>Sit and grasp bar with narrow to shoulder width underhand grip. Rest forearms on thighs with wrists just beyond knees.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Raise heels by extending ankles as high as possible. Lower heels by bending ankles until calves are stretched. Repeat.</t>
+          <t>Allow barbell to roll out of palms down to fingers. Raise barbell back up by gripping and pointing knuckles up as high as possible. Lower and repeat.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Calves</t>
+          <t>Forearm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Concentration Curl</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Facing low pulley cable, sit on seat or bench with legs apart to each side. Grasp stirrup attachment. Place upper arm against inner thigh.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pull stirrup to front of shoulder until elbow is completely flexed. Lower stirrup until arm is fully extended. Repeat. Continue with opposite arm.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Biceps</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>THURSDAY</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pull-up (open-centered bar)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Assisted (machine)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Step up and grasp bar with wide overhand grip. Kneel on padded platform and lower body down with arm extended.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pull body up until neck reaches height of hands. Lower body until arms and shoulders are fully extended. Repeat.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Incline Shoulder Raise</t>
+          <t>Curl</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lie supine on incline bench. Dismount barbell from rack with shoulder width overhand grip. Position barbell over upper chest with elbows extended.</t>
+          <t>Grasp bar with shoulder width underhand grip.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Raise shoulders toward bar as high as possible. Lower shoulders to bench and repeat.</t>
+          <t>With elbows to side, raise bar until forearms are vertical. Lower until arms are fully extended. Repeat.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Biceps</t>
         </is>
       </c>
     </row>
@@ -1381,27 +1381,27 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Military Press:  Seated</t>
+          <t xml:space="preserve">Seated Pronation </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Dumbbell</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Grasp barbell with slightly wider than shoulder width overhand grip from rack. Position bar near upper chest.</t>
+          <t>Sit next to elevated surface, approximately arm pit height. With hand of upper arm, grasp unilaterally loaded dumbbell; pinkie positioned near weighted side. Bend elbow approximately 90-degrees and place upperarm on elevated surface. Position thumb upward (supinated).</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Press bar upward until arms are extended overhead. Return to upper chest and repeat.</t>
+          <t>Rotate dumbbell so thumb turns downward (pronation). Return and repeat.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Forearm</t>
         </is>
       </c>
     </row>
@@ -1409,27 +1409,27 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Triceps Extension</t>
+          <t>Standing Shoulder Internal Rotation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sit on utility weight bench with barbell. Position barbell overhead with narrow overhand grip.</t>
+          <t>Grasp suspension handles and position bent elbows to each sides of waist.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lower barbell behind upper shoulders by flexing elbows allowing forearms to travel behind upper arms with elbows remaining overhead. Raise barbell overhead by extending elbows until arms are positioned straight and vertical. Lower and repeat.</t>
+          <t>Pull handles apart from each side, while keeping fixed elbow position and body and legs straight throughout movement. Raise forward so handles are to each side of body. Return back until handles come back together in front of body. Repeat.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Triceps</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Upright Row</t>
+          <t>Pullover</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Grasp bar with shoulder width or slightly narrower overhand grip.</t>
+          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pull bar to neck with elbows leading. Allow wrists to flex as bar rises. Lower and repeat.</t>
+          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Incline Fly</t>
+          <t>Pullup/Chinup:  Pull-up</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sit on seat with stirrups in each hand (attached to low cable pulleys). Lie back on incline back support. Position stirrups out to each side of chest with bent arm under each wrist. Press stirrups over each shoulder until arms vertical. Bend elbows slightly and internally rotate shoulders so elbows point out to sides.</t>
+          <t>Place dip belt around waist. Kneel close to low pulley or lever and attach hook to dip belt. Step up and grasp bars with overhand wide grip. Lift legs off of steps or floor.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lower stirrups outward to sides of shoulders. Keep elbows fixed in slightly bent position. When a stretch is felt in chest or shoulders, bring stirrups back together in hugging motion above upper chest until stirrups are nearly together Repeat.</t>
+          <t>Pull body up until chin is above bar. Lower body until arms and shoulders are fully extended. Repeat.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -1493,27 +1493,27 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rear Delt Row:  Standing Rear Delt Row (stirrups)</t>
+          <t>Shrug</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Barbell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Stand facing twin pulley cables positioned shoulder height. Grasp stirrup cable attachment in each hand. Step back with one foot so arms and shoulders are positioned straight forward with cable taut. Point elbows outward.</t>
+          <t>Stand holding barbell with overhand or mixed grip; shoulder width or slightly wider.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pull stirrups out to sides, keeping elbows at shoulder height until elbows travel slightly behind back. Allow wrists to follow elbows. Keep upper arms horizontal, perpendicular to trunk. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
+          <t>Elevate shoulders as high as possible. Lower and repeat.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -1521,22 +1521,22 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pullover</t>
+          <t>Inverted Row</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Barbell</t>
+          <t>Weighted</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lie upper back perpendicular on bench. Flex hips slightly. Grasp barbell from behind and position over chest with elbows bent slightly.</t>
+          <t>Sit on seat and position chest against pad. Grasp lever handles with underhand grip.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>With elbows bent slightly, lower bar over and beyond head until shoulders are fully flexed or upper arms are approximately parallel to torso. Return and repeat.</t>
+          <t>Pull levers back until elbows are behind back and shoulders are pulled back. Return until arms are extended and shoulders are stretched forward. Repeat.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1549,44 +1549,60 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Front Lateral Raise</t>
+          <t>Incline Row:  Close Grip</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Lever (plate loaded)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Grasp dumbbell cable attachment. Stand facing side with resting arm toward low pulley. Grasp ballet bar if available for support. Internally rotate shoulders so elbows point out to sides.</t>
+          <t>Lie chest on inclined platform and grasp lever close grip handles.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>With elbow straight or slightly bent, raise upper arm away from low pulley to side, slightly to front (30°) until upper arm is shoulder height. Lower and repeat. Continue with opposite arm.</t>
+          <t>Pull lever up as high as possible. Return until arms are extended and shoulders are stretched downward. Repeat.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Back</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Seated Row (no chest pad):  Straight Back</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Lever (selectorized)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sit on seat and grasp handles with each hand. Place feet on vertically angled platform. Slide hips back with knees slightly bent.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pull handles to waist while straightening torso upright. Pull shoulders back and push chest forward while arching back. Return until arms are extended, shoulders are stretched forward, and lower back is flexed forward. Repeat.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>FRIDAY</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -1594,220 +1610,64 @@
       <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Lying Reverse Calf Press</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sled</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Position sled away from platform. Lie supine on sled with shoulders against pad and place feet very high on platform. Grasp handles to sides and straighten knees.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pull forefoot back toward body as far as possible while pushing platform with heels. Return feet down to platform and repeat.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Calves</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Hip Extensions:  Lying</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Lever (selectorized)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>With leg lever positioned in the lower position, lie supine on machine with legs over padded bar. Align hip joints with lever fulcrum. Strap hips down with belt if available. Release leg lever and adjust until leg lever is in upper position. Grasp handles to sides of head.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Push padded leg bar down until hips are extended. Return and repeat.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Glutes</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Hyperextension</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Barbell</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Position thighs prone on large pad and lower leg under padded brace. Place barbell on back of shoulders and grasp bar to sides.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Raise upper body until hip and waist are fully extended. Lower body by bending hips and waist until fully flexed. Repeat.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Hamstring</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Squat:  Barbell Machine</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Lever (plate loaded)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>With bar upper chest height, position bar on back of shoulders and grasp bar to sides. Place feet under bar. Disengage bar by rotating bar back.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Squat down by bending hips back while allowing knees to bend forward, keeping back straight and knees pointed same direction as feet. Descend until thighs are just past parallel to floor. Extend knees and hips until legs are straight. Return and repeat.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Quads</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Safety Barbell Seated Calf Raise</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Barbell</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Place safety bar on rack approximately lower leg height with calf block slightly rear of safety bar. Sit on bench facing safety bar and place toes on lower portion of platform with heels extending off. Scoot forward to edge of bench and position lower thighs under safety bar. Grasp bar to sides and lift bar from rack by pushing heels up. Slide back to center of bench.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Lower heels by bending ankles until calves are stretched. Raise heels by extending ankles as high as possible. Repeat.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Calves</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SUNDAY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Standing Calf Raise</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Barbell</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Set barbell on power rack upper chest height with calf block under barbell. Position back of shoulders under barbell with both hands to sides. Position toes and balls of feet on calf block with arches and heels extending off. Lean barbell against rack and raise from supports by extending knees and hips. Support barbell against verticals with both hands to sides.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Raise heels by extending ankles as high as possible. Lower heels by bending ankles until calves are stretched. Repeat.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Calves</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SATURDAY</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SUNDAY</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
